--- a/LCD Breakout Board/Altium Files/Project Outputs/LCD_BREAKOUT.xlsx
+++ b/LCD Breakout Board/Altium Files/Project Outputs/LCD_BREAKOUT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Downloads\New folder\Project Outputs for LCD_BREAKOUT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49BEAE6D-4B62-4D63-A0BA-B2BA3850C6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE3A885-6300-4E43-A19B-D4506A88019B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F5966C7-7431-4702-A5AA-045C64623644}"/>
+    <workbookView xWindow="9120" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{9F5966C7-7431-4702-A5AA-045C64623644}"/>
   </bookViews>
   <sheets>
     <sheet name="LCD_BREAKOUT" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
   <si>
     <t>Line #</t>
   </si>
@@ -192,6 +192,18 @@
   </si>
   <si>
     <t>732-5321-ND</t>
+  </si>
+  <si>
+    <t>NHD-C12832A1Z-FSW-FBW-3V3-ND</t>
+  </si>
+  <si>
+    <t>720-VJ1206Y105JXQTW1BCCT-ND</t>
+  </si>
+  <si>
+    <t>718-293D105X9050B2TE3CT-ND</t>
+  </si>
+  <si>
+    <t>399-C0603X104J4RACTUCT-ND</t>
   </si>
 </sst>
 </file>
@@ -207,7 +219,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +229,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,12 +266,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,13 +607,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F143FBD9-714A-4216-9A62-73D798984C82}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="16" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="30.77734375" customWidth="1"/>
     <col min="4" max="4" width="18.109375" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="16.44140625" customWidth="1"/>
@@ -879,6 +901,61 @@
         <v>0.36</v>
       </c>
     </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
